--- a/数据整理/stocks/A股/上证主板/600745-闻泰科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/600745-闻泰科技.xlsx
@@ -451,715 +451,965 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>159995</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>238.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>14.8961</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512760</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰CES半导体行业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>147.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.5986</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5641</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159801</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6527</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>213006</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2461</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001075</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1581</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004666</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9929</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>270021</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9251</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159813</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4402</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>96.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3642</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159811</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时中证5G产业50ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2367</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>96.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2271</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008456</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>21.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1604</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1434</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23.54</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1428</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009547</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安鼎利混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>64.65</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1233</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008457</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>21.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1129</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23.54</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0893</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001275</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中邮创新优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000241</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>78.41</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t>010026</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>广发聚瑞混合C</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>88.56</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>4.48</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>270021</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发聚瑞混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>88.56</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000241</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>宝盈核心优势灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>78.41</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>8.05</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>040015</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华安动态灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>79.58</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008326</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>西藏东财中证通信技术主题指数A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>96.24</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>6.72</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008327</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>西藏东财中证通信技术主题指数C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>96.24</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>6.72</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>213006</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>宝盈核心优势灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>78.41</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>8.05</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>159801</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>广发国证半导体芯片ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>99.79</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>6.19</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>159811</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>博时中证5G产业50ETF</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>98.81</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>159813</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>鹏华国证半导体芯片ETF</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>97.85</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>6.08</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>159995</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华夏国证半导体芯片ETF</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>99.80</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>6.24</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>512760</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>国泰CES半导体行业ETF</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>99.52</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>515880</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>国泰中证全指通信设备ETF</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>99.72</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>9.24</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001075</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>宝盈转型动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>91.93</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>7.83</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>004666</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>长城久嘉创新成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>94.81</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001275</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>中邮创新优势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>87.08</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>620004</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>金元顺安价值增长混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>89.63</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>008456</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>招商瑞阳股债配置混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>21.95</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>008457</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>招商瑞阳股债配置混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>21.95</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>004932</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>招商丰拓灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>23.54</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>004933</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>招商丰拓灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>23.54</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>161033</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>富国中证智能汽车指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>93.89</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>009547</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>华安鼎利混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>64.65</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>006154</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>华安制造先锋混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>92.03</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>5.59</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1169,7 +1419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1190,15 +1440,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001410</t>
+          <t>159995</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>信达澳银新能源产业股票</t>
+          <t>华夏国证半导体芯片ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>205.08</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>99.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>13.8429</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004044</t>
+          <t>512760</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金鹰转型动力灵活配置混合</t>
+          <t>国泰CES半导体行业ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>87.51</t>
+          <t>111.62</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.4917</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004211</t>
+          <t>515880</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金鹰周期优选灵活配置混合</t>
+          <t>国泰中证全指通信设备ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>100.41</t>
+          <t>31.45</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.22</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.0978</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008263</t>
+          <t>001410</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>东方红品质优选两年定期开放混合</t>
+          <t>信达澳银新能源产业股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>22.18</t>
+          <t>89.27</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4997</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009842</t>
+          <t>159801</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>东方红明鉴优选两年定期开放混合</t>
+          <t>广发国证半导体芯片ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>21.38</t>
+          <t>18.22</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2244</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004693</t>
+          <t>213006</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>新疆前海联合泳隽灵活配置混合A</t>
+          <t>宝盈核心优势灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>88.55</t>
+          <t>10.99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>79.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0276</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007042</t>
+          <t>270021</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>新疆前海联合泳隽灵活配置混合C</t>
+          <t>广发聚瑞混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>88.55</t>
+          <t>18.80</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9889</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005493</t>
+          <t>004666</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鑫元价值精选灵活配置混合A</t>
+          <t>长城久嘉创新成长灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>72.57</t>
+          <t>17.92</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8817</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005494</t>
+          <t>310308</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>鑫元价值精选灵活配置混合C</t>
+          <t>申万菱信盛利精选混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>72.57</t>
+          <t>18.80</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
+          <t>73.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8629</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>004666</t>
+          <t>001075</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>长城久嘉创新成长灵活配置混合</t>
+          <t>宝盈转型动力灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>92.58</t>
+          <t>7.72</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6948</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1490,25 +1850,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>310308</t>
+          <t>501062</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>申万菱信盛利精选混合</t>
+          <t>南方瑞合三年定期开放混合(LOF)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>73.56</t>
+          <t>20.54</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>44.01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5874</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1518,25 +1888,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>000928</t>
+          <t>159813</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中融国企改革灵活配置混合</t>
+          <t>鹏华国证半导体芯片ETF</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>90.70</t>
+          <t>6.11</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+          <t>97.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3984</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>501062</t>
+          <t>008326</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>南方瑞合三年定期开放混合(LOF)</t>
+          <t>西藏东财中证通信技术主题指数A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>44.01</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>7</v>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2933</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>270021</t>
+          <t>010955</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>广发聚瑞混合A</t>
+          <t>天弘中证智能汽车主题指数A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>91.76</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5.26</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>9</v>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2661</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>010026</t>
+          <t>008263</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>广发聚瑞混合C</t>
+          <t>东方红品质优选两年定期开放混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>91.76</t>
+          <t>25.21</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5.26</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
+          <t>22.18</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2546</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>610002</t>
+          <t>006257</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>信达澳银精华配置混合</t>
+          <t>信达澳银先进智造股票</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>80.84</t>
+          <t>14.26</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>8</v>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2424</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>165528</t>
+          <t>515250</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>信诚鼎利灵活配置混合（LOF）</t>
+          <t>富国中证智能汽车主题ETF</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>53.26</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>4</v>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2424</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>213006</t>
+          <t>008327</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>宝盈核心优势灵活配置混合A</t>
+          <t>西藏东财中证通信技术主题指数C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>79.08</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>9.35</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>3</v>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2423</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>000241</t>
+          <t>010956</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>宝盈核心优势灵活配置混合C</t>
+          <t>天弘中证智能汽车主题指数C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>79.08</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>9.35</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>3</v>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2245</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>000368</t>
+          <t>159811</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>汇添富沪深300安中指数</t>
+          <t>博时中证5G产业50ETF</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>92.86</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>8</v>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2154</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>006257</t>
+          <t>009511</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>信达澳银先进智造股票</t>
+          <t>信达澳银研究优选混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>10.31</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>7</v>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1742</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>006535</t>
+          <t>009437</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>恒生前海恒锦裕利混合A</t>
+          <t>信达澳银科技创新一年定期开放混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>29.92</t>
+          <t>10.01</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>9</v>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1692</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>006536</t>
+          <t>004693</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>恒生前海恒锦裕利混合C</t>
+          <t>新疆前海联合泳隽灵活配置混合A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>29.92</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>9</v>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1535</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -1864,15 +2354,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>85.50</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>2.15</t>
         </is>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>010496</t>
+          <t>000368</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>创金合信创新驱动股票C</t>
+          <t>汇添富沪深300安中指数</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>85.50</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>10</v>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>001075</t>
+          <t>161033</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>宝盈转型动力灵活配置混合</t>
+          <t>富国中证智能汽车指数(LOF)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>9.00</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>4</v>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -1938,26 +2458,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>010955</t>
+          <t>610002</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>天弘中证智能汽车主题指数A</t>
+          <t>信达澳银精华配置混合</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>95.02</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>10</v>
+          <t>80.84</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -1966,26 +2496,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>010956</t>
+          <t>007484</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>天弘中证智能汽车主题指数C</t>
+          <t>信达澳银核心科技混合</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>95.02</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>10</v>
+          <t>95.57</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -1994,26 +2534,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>007484</t>
+          <t>163116</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>信达澳银核心科技混合</t>
+          <t>申万菱信中证申万电子行业投资指数（LOF）A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>95.57</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>8</v>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -2022,26 +2572,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>001270</t>
+          <t>004044</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>英大灵活配置混合A</t>
+          <t>金鹰转型动力灵活配置混合</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>93.33</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>6</v>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -2050,26 +2610,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>001271</t>
+          <t>001540</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>英大灵活配置混合B</t>
+          <t>浙商汇金转型驱动灵活配置混合</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>93.33</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>6</v>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="33">
@@ -2078,26 +2648,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>512760</t>
+          <t>009842</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>国泰CES半导体行业ETF</t>
+          <t>东方红明鉴优选两年定期开放混合</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>99.64</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>6</v>
+          <t>21.38</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -2106,26 +2686,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>515250</t>
+          <t>009438</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>富国中证智能汽车主题ETF</t>
+          <t>信达澳银科技创新一年定期开放混合C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>98.80</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>10</v>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -2134,26 +2724,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>080007</t>
+          <t>000241</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>长盛同鑫行业配置混合</t>
+          <t>宝盈核心优势灵活配置混合C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>87.45</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>9</v>
+          <t>79.08</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -2162,26 +2762,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>515880</t>
+          <t>165528</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>国泰中证全指通信设备ETF</t>
+          <t>信诚鼎利灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>99.58</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>9.85</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>2</v>
+          <t>53.26</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -2190,26 +2800,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>001540</t>
+          <t>000928</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>浙商汇金转型驱动灵活配置混合</t>
+          <t>中融国企改革灵活配置混合</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>89.44</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>9</v>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="38">
@@ -2218,26 +2838,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>159801</t>
+          <t>005381</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>广发国证半导体芯片ETF</t>
+          <t>泰康睿利量化多策略混合A</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>99.22</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>6.72</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>6</v>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -2246,26 +2876,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>159811</t>
+          <t>005493</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>博时中证5G产业50ETF</t>
+          <t>鑫元价值精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>99.26</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>7</v>
+          <t>72.57</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="40">
@@ -2274,25 +2914,35 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>159813</t>
+          <t>004211</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>鹏华国证半导体芯片ETF</t>
+          <t>金鹰周期优选灵活配置混合</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>97.13</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>6.52</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
+          <t>100.41</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2302,26 +2952,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>159995</t>
+          <t>002191</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>华夏国证半导体芯片ETF</t>
+          <t>农银汇理物联网主题灵活配置混合</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>99.81</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>6.75</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>6</v>
+          <t>60.13</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -2330,26 +2990,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>002191</t>
+          <t>001270</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>农银汇理物联网主题灵活配置混合</t>
+          <t>英大灵活配置混合A</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>60.13</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>2</v>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="43">
@@ -2358,26 +3028,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>620004</t>
+          <t>001271</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>金元顺安价值增长混合</t>
+          <t>英大灵活配置混合B</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>83.89</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>3</v>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="44">
@@ -2386,26 +3066,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>161033</t>
+          <t>620004</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>富国中证智能汽车指数(LOF)</t>
+          <t>金元顺安价值增长混合</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>92.66</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>10</v>
+          <t>83.89</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -2414,26 +3104,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>710301</t>
+          <t>010026</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>富安达增强收益债券A</t>
+          <t>广发聚瑞混合C</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>20.28</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>10</v>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="46">
@@ -2442,26 +3142,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>710302</t>
+          <t>006535</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>富安达增强收益债券C</t>
+          <t>恒生前海恒锦裕利混合A</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>20.28</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>10</v>
+          <t>29.92</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="47">
@@ -2470,26 +3180,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>163116</t>
+          <t>006536</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>申万菱信中证申万电子行业投资指数（LOF）A</t>
+          <t>恒生前海恒锦裕利混合C</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>10</v>
+          <t>29.92</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="48">
@@ -2498,26 +3218,36 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>010531</t>
+          <t>080007</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>申万菱信中证申万电子行业投资指数（LOF）C</t>
+          <t>长盛同鑫行业配置混合</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>10</v>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="49">
@@ -2526,26 +3256,36 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>005381</t>
+          <t>010496</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>泰康睿利量化多策略混合A</t>
+          <t>创金合信创新驱动股票C</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>92.24</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>3</v>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="50">
@@ -2554,26 +3294,36 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>005382</t>
+          <t>010531</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>泰康睿利量化多策略混合C</t>
+          <t>申万菱信中证申万电子行业投资指数（LOF）C</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>92.24</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>3</v>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="51">
@@ -2582,26 +3332,36 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>008326</t>
+          <t>710301</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>西藏东财中证通信技术主题指数A</t>
+          <t>富安达增强收益债券A</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>94.95</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>7.17</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>2</v>
+          <t>20.28</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="52">
@@ -2610,26 +3370,36 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>008327</t>
+          <t>005382</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>西藏东财中证通信技术主题指数C</t>
+          <t>泰康睿利量化多策略混合C</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>94.95</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>7.17</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>2</v>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -2638,26 +3408,36 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>009437</t>
+          <t>710302</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>信达澳银科技创新一年定期开放混合A</t>
+          <t>富安达增强收益债券C</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>95.07</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>8</v>
+          <t>20.28</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="54">
@@ -2666,26 +3446,36 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>009438</t>
+          <t>005494</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>信达澳银科技创新一年定期开放混合C</t>
+          <t>鑫元价值精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>95.07</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>8</v>
+          <t>72.57</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="55">
@@ -2694,25 +3484,29 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>009511</t>
+          <t>007042</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>信达澳银研究优选混合</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
+          <t>新疆前海联合泳隽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600745-闻泰科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/600745-闻泰科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3492,7 +3493,6 @@
           <t>新疆前海联合泳隽灵活配置混合C</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
           <t>88.55</t>
@@ -3508,6 +3508,2190 @@
       </c>
       <c r="H55" t="n">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159995</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>162.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.1179</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515050</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>171.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.2987</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512760</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰CES半导体行业ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>112.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.9937</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.7310</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001606</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>农银汇理工业4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>55.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.3694</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011136</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发盛兴混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>54.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9983</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000336</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>农银研究精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>37.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5729</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159994</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>37.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3605</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>270021</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9053</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>310308</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>申万菱信盛利精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>23.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8211</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159801</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7367</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>69.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5805</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>257020</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国联安精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4844</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010955</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2974</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>900009</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2930</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006977</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>农银汇理海棠三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2747</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>95.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2613</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010956</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2475</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159813</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>97.06</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2167</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008456</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>14.34</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>27.85</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2165</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>515250</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2159</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>95.55</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2114</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005535</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰信竞争优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1977</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11.45</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>29.09</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1798</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002657</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.41</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>28.24</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1769</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011137</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发盛兴混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1556</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159811</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时中证5G产业50ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1471</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1262</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>290006</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>泰信蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1261</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>61.07</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1045</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1008</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008457</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>27.85</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>29.09</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000368</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇添富沪深300安中指数</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>510020</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博时上证超级大盘ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>97.24</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>61.07</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>516590</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>易方达中证智能电动汽车交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>95.44</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>900059</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000259</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>农银区间收益混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>56.02</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009954</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>北信瑞丰优选成长股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009493</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>大成尊享18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>27.63</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004694</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009842</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东方红明鉴优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>20.52</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002658</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>28.24</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000928</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中融国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006801</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010026</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005638</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>农银汇理量化智慧动力混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>81.53</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001829</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>北信瑞丰中国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002123</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>北信瑞丰外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006802</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010999</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009494</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>大成尊享18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>27.63</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>004223</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>金信多策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>004748</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600745-闻泰科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/600745-闻泰科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5697,4 +5698,3546 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159995</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>164.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.2361</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515050</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>138.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.4747</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512760</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰CES半导体行业ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>120.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.4534</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>163415</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全商业模式优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>153.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.4281</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>98.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.2674</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.5959</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011328</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.1959</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26.56</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.8047</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001606</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>农银汇理工业4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>60.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.5333</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>60.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.2562</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000336</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>农银研究精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>50.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.1357</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011329</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>59.27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.0982</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011136</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发盛兴混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>32.74</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.7974</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>270021</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>26.23</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.7390</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>40.16</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.6948</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010694</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>28.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.6720</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>24.67</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.3692</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008378</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴全社会价值三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>51.80</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.3054</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159994</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>30.97</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>97.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.2016</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>20.44</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>75.80</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.1365</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159801</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>18.99</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.0596</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010611</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>17.85</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.0157</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>19.08</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.9502</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007449</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>17.99</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.7232</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010714</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东方红远见价值混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>18.21</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5536</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>11.52</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5011</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>257020</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国联安精选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4679</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4296</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4024</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004693</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3940</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010161</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>11.75</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>83.02</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3807</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010612</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3801</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004788</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富荣沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>12.44</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3670</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159813</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3428</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006977</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>农银汇理海棠三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3384</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006864</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国联安核心资产策略混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3372</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>519957</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>16.73</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>22.74</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3045</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>519956</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>16.71</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>22.74</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3041</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010861</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长信企业优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>11.38</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>55.99</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2993</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002133</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发鑫益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>81.09</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2426</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004789</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富荣沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2207</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>516920</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2171</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000462</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>农银主题轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2132</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006281</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>万家人工智能混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2116</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2075</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001197</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长盛转型升级主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>85.78</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1836</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>62.45</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1818</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>217012</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1771</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011137</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>广发盛兴混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>81.26</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1729</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006233</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1725</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006132</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>万家智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1709</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1638</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001103</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>前海开源工业革命4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>49.46</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1496</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1279</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>159811</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>博时中证5G产业50ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1231</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011501</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>28.69</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007450</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>000039</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>农银高增长混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>007063</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长盛研发回报混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>85.63</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0921</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>510020</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>博时上证超级大盘ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006234</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010026</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001275</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中邮创新优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>84.45</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>004480</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华宝智慧产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>012552</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>159710</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>建信中证智能电动汽车交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>96.03</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>012553</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011800</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>申万菱信价值精选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>76.02</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010162</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>83.02</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>002732</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>长盛沪港深优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>60.95</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>002003</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>工银瑞信新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>78.53</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>002004</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>工银瑞信新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>78.53</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>006133</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>万家智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>516380</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华宝中证智能电动汽车交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>98.05</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>620007</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>68.62</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001375</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>68.62</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>006801</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>78.37</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>000928</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中融国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001760</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>嘉实创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>501002</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>长信价值优选混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>570007</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>诺德优选30混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>006802</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>78.37</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011502</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>28.69</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>006009</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>61.91</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>006010</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>61.91</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>007042</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>960019</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>招商行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>75.80</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600745-闻泰科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/600745-闻泰科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9219,7 +9220,6 @@
           <t>万家科创主题3年封闭运作灵活配置混合C</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
           <t>75.80</t>
@@ -9235,6 +9235,106 @@
       </c>
       <c r="H93" t="n">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>92</v>
+      </c>
+      <c r="D2" t="n">
+        <v>74.18000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>56</v>
+      </c>
+      <c r="D3" t="n">
+        <v>38.47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>54</v>
+      </c>
+      <c r="D4" t="n">
+        <v>33.98</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>32.39</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600745-闻泰科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/600745-闻泰科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9248,7 +9249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9259,17 +9260,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9279,14 +9300,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>92</v>
-      </c>
-      <c r="D2" t="n">
-        <v>74.18000000000001</v>
+          <t>002190</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理新能源主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>287.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>14.0022</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -9295,14 +9338,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>56</v>
-      </c>
-      <c r="D3" t="n">
-        <v>38.47</v>
+          <t>159995</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>175.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>12.8144</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -9311,14 +9376,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>54</v>
-      </c>
-      <c r="D4" t="n">
-        <v>33.98</v>
+          <t>163402</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全趋势投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>298.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>12.5795</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -9327,13 +9414,9218 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>163406</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全合润混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>334.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>12.4938</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>163417</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>276.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>8.9167</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512760</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰CES半导体行业ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>121.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>7.1367</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001511</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴全新视野灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>169.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>6.8211</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515050</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>117.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>6.3798</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>163415</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴全商业模式优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>159.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>6.0937</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501208</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>112.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>96.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>4.5434</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>106.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>4.3921</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011328</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>108.79</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>4.1667</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3.8440</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001606</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>农银汇理工业4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>70.40</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>3.6256</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>50.87</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.72</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>3.3116</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>163412</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴全轻资产混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>3.0278</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000336</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>农银研究精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>58.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>3.0270</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009863</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国创新趋势股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>74.66</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2.8072</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011329</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>72.24</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2.7668</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>73.31</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2.6831</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>49.61</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2.4408</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011136</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发盛兴混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>29.99</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2.3482</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>270021</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2.3354</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010213</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>69.25</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2.1329</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011037</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国长期成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>80.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>55.81</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2.1280</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011401</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>55.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2.1128</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>100022</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国天瑞强势地区精选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>53.79</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>82.31</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2.0333</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010437</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>62.65</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.8920</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010694</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>万家内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>30.44</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.8842</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007449</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>39.97</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.8186</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008378</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>兴全社会价值三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>54.53</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.7286</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>18.97</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1.7244</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011246</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>54.37</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.6474</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010161</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>28.93</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1.5478</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>40.16</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1.5421</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011338</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>41.03</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>1.5017</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159801</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>19.56</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>99.76</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>1.4220</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>21.70</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>1.3519</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>159994</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>银华中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>1.3092</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>070011</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>嘉实策略增长混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>41.48</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>1.3025</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>100060</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国高新技术产业混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>37.64</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>1.2873</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>15.86</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>1.2609</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>1.2383</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>501088</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>嘉实瑞虹三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>35.83</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>1.1215</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>340006</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>兴全全球视野股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>26.66</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>83.39</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>1.1171</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012130</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>景顺长城先进智造混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>32.42</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>1.0763</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010611</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>16.53</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>1.0497</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010361</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>嘉实品质优选股票A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>34.22</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>1.0300</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002669</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华商万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>27.33</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.9647</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>30.65</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.9256</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>040007</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华安中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>22.83</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.8790</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>95.43</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.8497</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>310328</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>申万菱信新动力混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>24.74</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>80.41</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.8412</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011371</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华商远见价值混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.8170</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>20.43</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.7559</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010550</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华商双擎领航混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>18.56</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>86.60</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.7183</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>257020</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>国联安精选混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.6984</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012239</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>惠升优势企业一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>18.31</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>80.73</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.6701</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011167</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>景顺长城景气成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>21.74</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.6479</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010284</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长城价值成长六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>21.01</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.6324</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>000020</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>景顺长城品质投资混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>16.52</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.5815</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>501091</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>嘉实瑞熙三年封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>18.65</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.5800</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>11.84</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.5624</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005821</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>25.59</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>70.83</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.5604</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>159813</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>鹏华国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.5552</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011344</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>景顺长城融景产业机遇一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>18.49</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.5473</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005491</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>16.66</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.5381</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.5179</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005840</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>富国产业驱动混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>12.43</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.5109</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>004788</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>富荣沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>15.11</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.5077</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>007895</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>嘉实价值成长混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>16.19</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.5035</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>110002</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>易方达策略成长混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>13.31</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.5031</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.4807</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>012098</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华夏成长机会一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>19.82</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>48.34</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.4717</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006864</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>国联安核心资产策略混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.4658</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>112002</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>易方达策略成长二号混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>11.77</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.4484</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001072</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华安智能装备主题股票</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>10.61</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.4446</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>040025</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华安科技动力混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>12.29</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.4400</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>002657</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>29.87</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>20.65</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.4242</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>32.60</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.4161</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010612</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.4039</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>008457</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>23.40</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.4025</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>000541</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华商创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.4007</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>006081</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>12.69</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.3858</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>010214</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>12.33</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.3798</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>004895</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华商鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.3536</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>159997</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>天弘中证电子ETF</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>13.37</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.3516</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>516640</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>富国中证芯片产业ETF</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>99.28</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.3414</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>012051</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>申万菱信乐道三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.3329</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>011369</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.3263</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>121002</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>国投瑞银景气行业混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>66.55</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.3229</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010425</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>82.19</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.3227</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>515250</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.3127</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>006642</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.3110</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>004789</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>富荣沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.3071</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>519957</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>16.52</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>27.09</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.2974</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>519956</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>16.51</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>27.09</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.2972</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>000462</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>农银主题轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.2962</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>481017</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>工银量化策略混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.2940</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>006281</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>万家人工智能混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.2926</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>008456</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>16.60</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.2855</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>006977</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>农银汇理海棠三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>83.50</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.2853</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>610001</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>信达澳银领先增长混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.2835</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>006122</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>华安低碳生活混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.2779</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>012124</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>博道盛彦混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.2584</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>008418</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>82.95</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.2462</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>516920</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.2452</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>012210</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.2375</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>001197</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>长盛转型升级主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.2373</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>159939</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>广发中证全指信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>13.90</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.2307</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>010955</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.2290</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>610002</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>信达澳银精华配置混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>12.21</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.2283</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>011137</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>广发盛兴混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.2255</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>007450</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.2152</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>001980</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>中欧量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>25.55</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.1993</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>32.60</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.1984</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.1850</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>515260</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>华宝中证电子50ETF</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>98.32</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.1840</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>010956</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.1827</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>008635</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>华安科技创新混合</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.1821</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>900009</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.1817</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>010438</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.1806</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>159733</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>景顺中证消费电子ETF</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>97.46</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.1770</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>006080</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.1748</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>011800</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>申万菱信价值精选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.1711</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>006233</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.1689</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>013445</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.1663</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>159720</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>泰康中证智能电动汽车交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>97.66</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.1633</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>010914</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>长盛成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.1574</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>006132</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>万家智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.1563</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>001037</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>国投瑞银锐意改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.1552</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>159811</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>博时中证5G产业50ETF</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.1537</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>009432</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.1520</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>95.43</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.1449</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>004784</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>招商稳健优选股票</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.1446</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>009623</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>长城创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.1388</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>001827</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>富国研究优选沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.1360</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>32.80</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.1360</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.1351</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>000039</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>农银高增长混合</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.1351</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>012211</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.1259</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>011144</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>华安汇宏精选混合A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.1254</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>002133</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>广发鑫益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.1245</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>006801</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.1180</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>009598</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>160626</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>鹏华中证信息技术指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.1162</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>880007</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.1151</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>007063</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>长盛研发回报混合</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>673141</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.1136</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>010026</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>010495</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.1057</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.1029</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>561600</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>平安中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>95.35</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.1001</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>010001</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>创金合信研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0962</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0932</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>007305</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>国联安新科技混合</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0932</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>013446</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>516380</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>华宝中证智能电动汽车交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0898</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>516520</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>97.75</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>011247</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>012553</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>011402</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>163116</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>000259</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>农银区间收益混合</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>59.70</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>515320</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>华安中证电子50ETF</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>012131</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>景顺长城先进智造混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>510081</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>长盛动态精选混合</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>65.00</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>002415</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>融通通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>28.18</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>009071</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>德邦安鑫混合A</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>27.29</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>011339</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>159710</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>建信中证智能电动汽车交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>98.65</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>32.80</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>006234</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>000279</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>华商红利优选混合</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>67.54</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>000524</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>上投摩根民生需求股票</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>560000</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>浦银安盛中证智能电动汽车ETF</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>95.73</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>008033</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>中加科盈混合A</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>27.99</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>512220</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>景顺长城中证科技传媒通信150ETF</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>97.92</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>516590</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>易方达中证智能电动汽车交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>20.65</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>159888</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>华夏中证智能汽车主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>010740</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>011370</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>010162</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>012838</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>519961</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>860006</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>002732</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>长盛沪港深优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>64.90</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>010362</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>嘉实品质优选股票C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>008419</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>82.95</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>009048</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新优选三年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>36.64</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>012552</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>160137</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>南方中证互联网指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>001229</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>德邦福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>010426</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合C</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>82.19</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>010404</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>博道盛利6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>33.90</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>673143</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>012837</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>004560</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>汇安丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>005328</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>前海开源价值策略股票</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>008034</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>中加科盈混合C</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>27.99</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>881007</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>900059</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>450007</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>国富成长动力混合</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>006198</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>长盛龙头双核驱动混合</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>010285</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>长城价值成长六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>010496</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>620007</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>74.64</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>006133</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>万家智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>80.40</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>011372</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>华商远见价值混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>001375</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>74.64</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>005638</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>农银汇理量化智慧动力混合</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>85.07</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>009433</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H217" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H218" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>001482</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>上投摩根新兴服务股票</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>80.97</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H219" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>010741</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>002106</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>德邦福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H221" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>001261</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>中融新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H222" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>519960</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H223" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>011145</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>华安汇宏精选混合C</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H224" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>585001</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>东吴中证新兴</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H225" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>006802</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H226" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>82.24</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H227" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>009072</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>德邦安鑫混合C</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>27.29</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H228" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>012125</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>博道盛彦混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H229" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>011345</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>景顺长城融景产业机遇一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H230" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>010915</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>长盛成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H231" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>010531</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H232" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>004888</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>财通资管鑫逸回报混合A</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>22.87</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H233" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>000892</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H234" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>82.24</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H235" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>004724</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>47.32</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>004725</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>47.32</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>010002</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>创金合信研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H238" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>004889</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>财通资管鑫逸回报混合C</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>22.87</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H239" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>004561</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>汇安丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G240" t="n">
+        <v>0</v>
+      </c>
+      <c r="H240" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G241" t="n">
+        <v>0</v>
+      </c>
+      <c r="H241" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>860055</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G242" t="n">
+        <v>0</v>
+      </c>
+      <c r="H242" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>860056</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G243" t="n">
+        <v>0</v>
+      </c>
+      <c r="H243" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>002028</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G244" t="n">
+        <v>0</v>
+      </c>
+      <c r="H244" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>243</v>
+      </c>
+      <c r="D2" t="n">
+        <v>209.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>92</v>
+      </c>
+      <c r="D3" t="n">
+        <v>74.18000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>56</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.47</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D5" t="n">
+        <v>33.98</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>24</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>32.39</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600745-闻泰科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/600745-闻泰科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18524,7 +18525,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18535,17 +18536,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -18555,14 +18576,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>243</v>
-      </c>
-      <c r="D2" t="n">
-        <v>209.58</v>
+          <t>163402</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全趋势投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>298.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.5337</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -18571,14 +18614,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>92</v>
-      </c>
-      <c r="D3" t="n">
-        <v>74.18000000000001</v>
+          <t>163406</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全合润混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>271.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10.4125</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -18587,14 +18652,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>56</v>
-      </c>
-      <c r="D4" t="n">
-        <v>38.47</v>
+          <t>159995</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>175.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>10.3646</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -18603,14 +18690,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>54</v>
-      </c>
-      <c r="D5" t="n">
-        <v>33.98</v>
+          <t>002190</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>农银汇理新能源主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>224.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>8.6147</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -18619,13 +18728,5442 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>163417</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>207.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>6.3144</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512760</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰CES半导体行业ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>115.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5.5771</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>163415</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴全商业模式优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>159.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.7696</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515050</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>95.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.5629</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001511</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴全新视野灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>127.55</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.9668</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011328</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>84.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.6116</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>69.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.7953</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>60.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.5169</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011329</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>55.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.3502</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>60.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>77.35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.2267</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001606</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>农银汇理工业4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>50.79</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.16</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.1535</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>41.92</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>77.32</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.0834</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000336</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>农银研究精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>46.79</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>77.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.9044</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>41.63</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.6694</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013426</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>贝莱德中国新视野混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>50.42</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>76.37</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.6084</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011136</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发盛兴混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>22.19</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.4779</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>270021</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>24.67</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.4679</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008456</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>78.71</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>27.47</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.2908</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>23.62</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.2282</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008378</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴全社会价值三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>42.87</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.2261</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014639</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>兴证全球合衡三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>55.51</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>68.89</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.1713</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.1514</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007449</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>28.03</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.1156</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159801</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>17.17</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.0096</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159994</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银华中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>21.75</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>97.87</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.0048</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>17.95</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>79.41</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.8490</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>24.43</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.7793</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>340006</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>兴全全球视野股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.7026</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.6955</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012130</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>景顺长城先进智造混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>22.82</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.6914</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>15.37</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.6117</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>159813</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏华国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>10.32</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.6017</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011167</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>景顺长城景气成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>19.97</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.5991</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010611</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>12.80</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.5504</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008457</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>27.36</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>27.47</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4487</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>257020</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国联安精选混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4389</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012239</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>惠升优势企业一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>13.67</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>76.01</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4388</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002657</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>32.90</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4244</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3983</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000020</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>景顺长城品质投资混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>12.44</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>84.17</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3744</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004476</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深领先科技股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3655</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005491</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>11.99</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3645</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010161</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3581</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>519957</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>15.70</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>44.52</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3580</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>519956</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>15.69</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>44.52</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3577</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3487</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3262</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3171</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>014418</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>西部利得CES半导体芯片行业指数增强A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.3029</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006864</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>国联安核心资产策略混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2927</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>610001</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>信达澳银领先增长混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2877</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001702</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>东方创新科技混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2850</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>515250</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2786</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012210</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2727</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>610002</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>信达澳银精华配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>18.32</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>71.31</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2711</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>516640</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>富国中证芯片产业ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2386</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>013427</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>贝莱德中国新视野混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>76.37</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2265</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001227</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中邮信息产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2231</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010612</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2176</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>000462</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>农银主题轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>86.71</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2090</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>012051</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>申万菱信乐道三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>81.64</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2089</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006281</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>万家人工智能混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1835</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>007450</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1783</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>516920</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1730</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>012124</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>博道盛彦混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1656</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005552</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1622</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>006449</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>浙商汇金量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>74.69</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1537</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010955</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1482</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011137</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>广发盛兴混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1383</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1364</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>43.54</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1364</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010237</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1320</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1311</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>014419</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>西部利得CES半导体芯片行业指数增强C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1311</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>004784</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>招商稳健优选股票</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1264</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010956</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1184</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>43.54</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1184</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>159811</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>博时中证5G产业50ETF</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>97.65</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1165</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>013445</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1106</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>012552</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1029</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1016</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>002133</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>广发鑫益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0997</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>006233</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>159786</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>银华中证虚拟现实主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0978</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>010238</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0969</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>009840</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>78.70</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>000039</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>农银高增长混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>77.87</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>013634</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0947</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>012553</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>012211</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>014640</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>兴证全球合衡三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>68.89</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>673141</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>013339</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>013345</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>富荣信息技术混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>010026</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>516520</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>97.61</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>000259</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>农银区间收益混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>65.11</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>002658</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>012319</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>西藏东财国证消费电子主题指数增强A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>013446</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>007305</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>国联安新科技混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>81.55</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>006234</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>012131</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>景顺长城先进智造混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>012837</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>013346</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>富荣信息技术混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>005914</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>景顺长城智能生活混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>001275</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>中邮创新优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>012838</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>159888</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>华夏中证智能汽车主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>012320</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>西藏东财国证消费电子主题指数增强C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>562950</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>易方达中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>97.32</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>000965</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>汇丰晋信新动力混合</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>009841</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>78.70</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>010162</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>450007</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>国富成长动力混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>013340</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>160137</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>南方中证互联网指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>005553</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>000935</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>浙商汇金转型成长混合</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>68.53</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>673143</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>013145</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>浙商汇金先进制造混合</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>68.33</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>540004</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>汇丰晋信2026周期混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>31.29</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>011800</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>申万菱信价值精选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>81.46</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>011886</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>006801</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>73.65</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>159733</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>景顺中证消费电子ETF</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>97.70</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>005638</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>农银汇理量化智慧动力混合</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>015206</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>013635</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>561600</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>平安中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>012125</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>博道盛彦混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>169201</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>69.59</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>006802</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>73.65</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>005035</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>011887</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>005036</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>79.41</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>144</v>
+      </c>
+      <c r="D2" t="n">
+        <v>121.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>243</v>
+      </c>
+      <c r="D3" t="n">
+        <v>209.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>92</v>
+      </c>
+      <c r="D4" t="n">
+        <v>74.18000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>56</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.47</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>54</v>
+      </c>
+      <c r="D6" t="n">
+        <v>33.98</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>24</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>32.39</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600745-闻泰科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/600745-闻泰科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -24046,7 +24047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24057,17 +24058,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -24077,14 +24098,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>144</v>
-      </c>
-      <c r="D2" t="n">
-        <v>121.3</v>
+          <t>163406</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合润混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>298.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.9554</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -24093,14 +24136,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>243</v>
-      </c>
-      <c r="D3" t="n">
-        <v>209.58</v>
+          <t>159995</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>194.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>9.4682</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -24109,14 +24174,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>92</v>
-      </c>
-      <c r="D4" t="n">
-        <v>74.18000000000001</v>
+          <t>002190</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>农银汇理新能源主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>235.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>9.0112</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -24125,14 +24212,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>56</v>
-      </c>
-      <c r="D5" t="n">
-        <v>38.47</v>
+          <t>001511</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全新视野灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>134.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.2588</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -24141,14 +24250,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>54</v>
-      </c>
-      <c r="D6" t="n">
-        <v>33.98</v>
+          <t>163402</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全趋势投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>234.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>6.2050</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -24157,13 +24288,5727 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>512760</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰CES半导体行业ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>125.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5.9209</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>163415</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴全商业模式优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>127.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>5.8951</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515050</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>96.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.5598</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011328</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>96.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.8194</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>72.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.9668</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011329</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>62.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.4564</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>52.73</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.2305</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>60.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.2053</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000336</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>农银研究精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>48.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.8460</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>45.22</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.7907</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011136</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发盛兴混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.5463</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>270021</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>22.98</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.5374</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.30</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>10.64</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.5215</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007449</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>32.78</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.5210</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159994</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>21.70</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.0134</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011338</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>36.93</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.0045</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159801</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>19.07</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.9268</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012130</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>景顺长城先进智造混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>24.30</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.8505</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013967</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发恒享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>111.38</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>28.34</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.8465</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.8032</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159813</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>14.94</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.7216</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>340006</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴全全球视野股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>22.29</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.7066</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011167</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>景顺长城景气成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>21.11</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.6945</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>257020</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国联安精选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.6380</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>15.75</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6221</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009312</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>新疆前海联合价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>11.69</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5109</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004693</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5105</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>515250</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4668</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4586</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4473</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3763</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006864</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国联安核心资产策略混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3670</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010161</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3638</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3308</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>516640</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国中证芯片产业ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3212</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>013968</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发恒享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>40.82</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>28.34</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3102</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010955</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3014</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005984</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>兴业聚华混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>25.24</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2827</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>014325</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国联安核心趋势一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2763</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012124</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博道盛彦混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2530</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010956</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2506</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>007450</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2450</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2322</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001427</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>35.53</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2159</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>000314</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>33.49</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2050</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>516920</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1852</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>28.07</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1686</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010237</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1679</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012552</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1596</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012029</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>广发恒鑫一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>19.21</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>29.90</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1594</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>515750</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>富国中证科技50策略ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1567</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008056</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>南方上证50指数增强A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1556</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1519</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>002389</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>36.09</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1513</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002581</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>49.11</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1467</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011137</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>广发盛兴混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1442</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>012553</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1407</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>48.76</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1393</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1307</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010238</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1241</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>013445</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1219</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>860016</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1165</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>159811</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>博时中证5G产业50ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>48.76</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1124</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>159786</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>银华中证虚拟现实主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>96.43</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1034</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>013292</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>002017</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>33.49</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0865</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>516520</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>98.17</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006366</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>兴业安保优选混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>81.55</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>002133</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>广发鑫益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009313</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>新疆前海联合价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005552</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>012837</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005985</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>兴业聚华混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>159889</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>国泰中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>96.35</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>015211</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>招商安鼎平衡1年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>30.43</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>013446</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>510020</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>博时上证超级大盘ETF</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>012131</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>景顺长城先进智造混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>008057</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>南方上证50指数增强C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>000965</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>汇丰晋信新动力混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>011603</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>012838</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>860052</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合B</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>015212</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>招商安鼎平衡1年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>30.43</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>159888</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华夏中证智能汽车主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>013726</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>惠升惠诚稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>012319</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>西藏东财国证消费电子主题指数增强A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>002390</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>36.09</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>014193</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业指数增强A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>011339</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>28.07</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>002582</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>49.11</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>010162</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>010026</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>562950</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>易方达中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>012320</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>西藏东财国证消费电子主题指数增强C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>000458</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>英大领先回报混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>011604</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>014326</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>国联安核心趋势一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>006369</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>160137</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>南方中证互联网指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>006227</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>014194</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业指数增强C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>540004</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>汇丰晋信2026周期混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>29.42</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>450007</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>国富成长动力混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>710002</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>富安达策略精选混合</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>73.83</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>006801</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>72.52</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>001270</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>010756</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>兴华永兴混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>001709</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>华富物联世界灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>005553</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>012125</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>博道盛彦混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>012030</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>广发恒鑫一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>29.90</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>159733</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>景顺中证消费电子ETF</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>161816</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>银华中证等权重90指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>015337</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>嘉实中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>001446</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>35.53</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>003238</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>新华外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>561600</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>平安中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>001609</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>平安鑫享混合A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>20.86</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>001271</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>165522</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>006802</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>72.52</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>510190</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>华安上证龙头ETF</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>97.05</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>015336</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>嘉实中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>001648</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>工银瑞信新价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>77.38</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>005035</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>010842</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>013530</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>003026</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>安信新价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>001610</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>平安鑫享混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>20.86</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>013727</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>惠升惠诚稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>005036</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>007925</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>平安鑫享混合E</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>20.86</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>003027</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>安信新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>012237</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>工银瑞信新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>77.38</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>013122</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>010757</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>兴华永兴混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>007042</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>152</v>
+      </c>
+      <c r="D2" t="n">
+        <v>103.77</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>144</v>
+      </c>
+      <c r="D3" t="n">
+        <v>121.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>243</v>
+      </c>
+      <c r="D4" t="n">
+        <v>209.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>92</v>
+      </c>
+      <c r="D5" t="n">
+        <v>74.18000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>56</v>
+      </c>
+      <c r="D6" t="n">
+        <v>38.47</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>54</v>
+      </c>
+      <c r="D7" t="n">
+        <v>33.98</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>24</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>32.39</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600745-闻泰科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/600745-闻泰科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>152</v>
+        <v>68</v>
       </c>
       <c r="D2" t="n">
-        <v>103.77</v>
+        <v>21.9</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D3" t="n">
-        <v>121.3</v>
+        <v>103.77</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>243</v>
+        <v>144</v>
       </c>
       <c r="D4" t="n">
-        <v>209.58</v>
+        <v>121.3</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>92</v>
+        <v>243</v>
       </c>
       <c r="D5" t="n">
-        <v>74.18000000000001</v>
+        <v>209.58</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="D6" t="n">
-        <v>38.47</v>
+        <v>74.18000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D7" t="n">
-        <v>33.98</v>
+        <v>38.47</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>54</v>
+      </c>
+      <c r="D8" t="n">
+        <v>33.98</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>24</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>32.39</v>
       </c>
     </row>
@@ -600,6 +617,2644 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159995</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>177.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.2115</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512760</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰CES半导体行业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>112.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.7360</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515050</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6366</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8399</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>270021</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8368</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007449</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7491</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011136</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发盛兴混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6685</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159801</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6284</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159813</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6055</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159994</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5804</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>257020</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国联安精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3574</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001257</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴业收益增强债券A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>68.35</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3418</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004693</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3338</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>515250</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2686</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>516640</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证芯片产业ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2463</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005984</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴业聚华混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>23.61</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>29.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2314</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012342</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发瑞泽精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2096</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010161</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2075</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006864</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国联安核心资产策略混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2056</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007450</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1986</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014325</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国联安核心趋势一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1402</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012553</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1213</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>516920</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1136</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012124</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博道盛彦混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013693</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博道盛兴一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.84</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0938</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159786</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银华中证虚拟现实主题ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>97.76</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006366</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴业安保优选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011137</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发盛兴混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002581</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>48.56</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159811</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时中证5G产业50ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005985</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>兴业聚华混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>29.42</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159743</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时中证湖北新旧动能转换ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001258</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>兴业收益增强债券C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011330</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华精选群英一年持有期灵活配置混合（MOM）</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002133</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发鑫益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>561100</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富国中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>516350</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>易方达中证芯片产业ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012838</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>013446</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>013445</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>159732</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏国证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010026</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>015337</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>嘉实中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012552</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010162</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002582</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>48.56</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>562950</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>易方达中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>159779</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>招商中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012343</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>广发瑞泽精选混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>014326</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国联安核心趋势一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012837</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>561600</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>平安中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>96.30</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>159769</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>银华中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>97.61</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>159733</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>景顺中证消费电子ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>98.54</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012125</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>博道盛彦混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>970077</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>安信资管瑞鑫一年持有期债券A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>970090</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>安信资管瑞丰6个月持有债券A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011536</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>惠升惠益混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>21.48</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>970078</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>安信资管瑞鑫一年持有期债券B</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>015336</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>嘉实中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011537</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>惠升惠益混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>21.48</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>970092</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>安信资管瑞丰6个月持有债券C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>970091</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>安信资管瑞丰6个月持有债券B</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>970079</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>安信资管瑞鑫一年持有期债券C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>007042</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6427,7 +9082,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11948,7 +14603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -21223,7 +23878,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -24764,7 +27419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -26948,7 +29603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -29049,7 +31704,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600745-闻泰科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/600745-闻泰科技.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="D2" t="n">
-        <v>21.9</v>
+        <v>31.84</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>152</v>
+        <v>68</v>
       </c>
       <c r="D3" t="n">
-        <v>103.77</v>
+        <v>21.9</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D4" t="n">
-        <v>121.3</v>
+        <v>103.77</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>243</v>
+        <v>144</v>
       </c>
       <c r="D5" t="n">
-        <v>209.58</v>
+        <v>121.3</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>92</v>
+        <v>243</v>
       </c>
       <c r="D6" t="n">
-        <v>74.18000000000001</v>
+        <v>209.58</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="D7" t="n">
-        <v>38.47</v>
+        <v>74.18000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D8" t="n">
-        <v>33.98</v>
+        <v>38.47</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,998 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D9" t="n">
+        <v>33.98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>24</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>32.39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159995</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>238.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>14.8961</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512760</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰CES半导体行业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>147.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.5986</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5641</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159801</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6527</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>213006</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2461</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001075</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1581</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004666</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9929</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>270021</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9251</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159813</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4402</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>96.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3642</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159811</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时中证5G产业50ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2367</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>96.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2271</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008456</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>21.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1604</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1434</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23.54</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1428</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009547</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安鼎利混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>64.65</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1233</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008457</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>21.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1129</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23.54</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0893</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001275</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中邮创新优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000241</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>78.41</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010026</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1602,3292 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H86"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159995</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>204.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.6092</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163415</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全商业模式优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>108.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.4140</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001511</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全新视野灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>111.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.3010</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515050</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.8555</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007449</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>34.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2979</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159813</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9805</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>110029</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达科讯混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>31.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9745</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>270021</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9281</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9038</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159801</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7998</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011136</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发盛兴混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.77</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7357</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159994</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.53</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6263</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006533</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达科融混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5563</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007450</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.79</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5130</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>257020</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国联安精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3945</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004693</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3678</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005984</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴业聚华混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>18.60</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>32.61</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3553</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>515250</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3318</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012342</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发瑞泽精选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2315</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010161</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2291</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006864</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国联安核心资产策略混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2270</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1867</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010956</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1695</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009715</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇添富策略增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.61</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1678</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014325</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国联安核心趋势一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1550</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005985</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>兴业聚华混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>32.61</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1471</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159786</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银华中证虚拟现实主题ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>98.08</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1308</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013693</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博道盛兴一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1285</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014418</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>西部利得CES半导体芯片行业指数增强A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1261</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014419</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>西部利得CES半导体芯片行业指数增强C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012124</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博道盛彦混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1217</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001322</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东吴新趋势价值线灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0948</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013292</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006366</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>兴业安保优选混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159743</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博时中证湖北新旧动能转换ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0851</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011137</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发盛兴混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>014727</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>易方达成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008185</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>516520</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>97.48</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010238</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>159811</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博时中证5G产业50ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>98.32</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>95.31</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>159889</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国泰中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002133</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>广发鑫益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>159888</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华夏中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014376</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>东吴新能源汽车股票A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010925</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159732</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华夏国证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>014728</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>易方达成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014193</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业指数增强A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011330</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>鹏华精选群英一年持有期灵活配置混合（MOM）</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010955</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001323</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>159795</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>汇添富中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>97.89</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012334</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>上银慧尚6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005552</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002660</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>兴业聚源混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>29.85</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>014194</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业指数增强C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010026</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010237</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010162</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>95.31</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>012343</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>广发瑞泽精选混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>013742</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>兴业聚源混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>29.85</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>014326</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国联安核心趋势一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>014377</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>东吴新能源汽车股票C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>450007</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>国富成长动力混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>540004</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>汇丰晋信2026周期混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>013733</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>红塔红土盛丰混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>61.27</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>970077</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>安信资管瑞鑫一年持有期债券A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>23.44</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>970078</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>安信资管瑞鑫一年持有期债券B</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>23.44</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>012125</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>博道盛彦混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010926</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006801</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>77.72</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>006802</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>77.72</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>008037</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>78.19</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005553</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>002170</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>008038</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>78.19</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>013734</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>红塔红土盛丰混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>61.27</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>012335</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>上银慧尚6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>970079</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>安信资管瑞鑫一年持有期债券C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>23.44</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>014497</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>007042</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3254,7 +7525,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9082,7 +13353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14603,7 +18874,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -23878,7 +28149,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -27419,7 +31690,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -29603,7 +33874,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -31702,972 +35973,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>159995</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏国证半导体芯片ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>238.72</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.80</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.24</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>14.8961</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>512760</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国泰CES半导体行业ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>147.95</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>99.52</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>6.5986</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>515880</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国泰中证全指通信设备ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>27.75</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>99.72</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9.24</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.5641</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>159801</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发国证半导体芯片ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>26.70</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>99.79</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.19</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.6527</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>213006</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>宝盈核心优势灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>15.48</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>78.41</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8.05</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.2461</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001075</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>宝盈转型动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>14.79</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.93</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.83</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.1581</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004666</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>长城久嘉创新成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>19.28</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.81</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.9929</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>270021</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>广发聚瑞混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>20.65</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>88.56</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.9251</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>159813</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>鹏华国证半导体芯片ETF</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>7.24</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>97.85</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.08</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.4402</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008326</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>西藏东财中证通信技术主题指数A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>5.42</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>96.24</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6.72</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.3642</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>159811</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>博时中证5G产业50ETF</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>6.18</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>98.81</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.2367</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008327</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>西藏东财中证通信技术主题指数C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>96.24</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>6.72</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2271</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008456</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>招商瑞阳股债配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>8.96</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>21.95</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1604</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>040015</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华安动态灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>79.58</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1434</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>004932</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>招商丰拓灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>6.77</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>23.54</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1428</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>009547</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华安鼎利混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>64.65</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1233</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>161033</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>富国中证智能汽车指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.89</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1232</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>008457</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>招商瑞阳股债配置混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>6.31</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>21.95</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1129</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>004933</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>招商丰拓灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>23.54</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0893</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>006154</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>华安制造先锋混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>92.03</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>5.59</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0760</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>001275</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>中邮创新优势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>87.08</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0708</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>000241</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>宝盈核心优势灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>78.41</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>8.05</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0250</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>620004</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>金元顺安价值增长混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>89.63</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0142</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>010026</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>广发聚瑞混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>88.56</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0103</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>